--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090670.029884497</v>
+        <v>-1092557.611400898</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>218.6818289327824</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>10.29490320055918</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.05110737787415</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>189.2872221905118</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>210.0898337706997</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>181.108935072445</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>44.96985915739644</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.596015618368514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>300.5272621999231</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>184.5748107456168</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>57.73991206543113</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>139.572956082172</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5357854200302</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>9.494456158028811</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273942</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>15.45120255788479</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>173.6379015391941</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896905</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>95.69941725530036</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>188.1607094910704</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>51.60930265314059</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5037389394477</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>146.2787299119464</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>97.26036068744297</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532056</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>21.65873182143613</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>93.59717489588073</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789604</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463129</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.2873553346313</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2421.229665252976</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="W2" t="n">
-        <v>2137.052644524937</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.586886263858</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>2090.166777909405</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>536.9297698725838</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>247.5125998356232</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>247.5125998356232</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
         <v>818.8658378359718</v>
@@ -4550,19 +4550,19 @@
         <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2266.302470686548</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332392</v>
+        <v>1935.239583342978</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1582.470928072863</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1209.005169811784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>818.8658378359718</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.36708197935076</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>721.4663421676781</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>432.0491721307175</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1056.889695563555</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="C8" t="n">
-        <v>1056.889695563555</v>
+        <v>1037.156341981567</v>
       </c>
       <c r="D8" t="n">
-        <v>698.6239969568041</v>
+        <v>1037.156341981567</v>
       </c>
       <c r="E8" t="n">
-        <v>698.6239969568041</v>
+        <v>651.3680893833223</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>240.3821845937147</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,7 +4832,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
         <v>2169.72394915887</v>
@@ -4841,13 +4841,13 @@
         <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.489535627676</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1443.489535627676</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>112.2661253207999</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>112.2661253207999</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.7420895073558</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,16 +5200,16 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811257</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>755.1831334811257</v>
+        <v>920.3704617345001</v>
       </c>
       <c r="X13" t="n">
-        <v>755.1831334811257</v>
+        <v>920.3704617345001</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.3905543375955</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805456</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822449</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,28 +5343,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123425</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123425</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1483.308995246908</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1483.308995246908</v>
       </c>
       <c r="V16" t="n">
-        <v>933.236668829393</v>
+        <v>1483.308995246908</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924323</v>
+        <v>1193.891825209947</v>
       </c>
       <c r="X16" t="n">
-        <v>468.4276790558726</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123425</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,28 +5534,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,19 +5598,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>510.7324460062428</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>341.7962630783359</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>341.7962630783359</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>193.8831694959428</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>193.8831694959428</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1308.854947839649</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1308.854947839649</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1019.726309053208</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>765.0418208473207</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>475.62465081036</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123426</v>
+        <v>692.3809108364825</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123426</v>
+        <v>692.3809108364825</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.6944526764914</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.6944526764914</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>380.9925476077777</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.0794540253846</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.0794540253846</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.0794540253846</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466634</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407765</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>531.1091870201135</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,13 +6209,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,25 +6224,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6321,10 +6321,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270632</v>
+        <v>731.3177283550804</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550804</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>731.3177283550804</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>510.5251492115503</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,61 +6449,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215252</v>
+        <v>604.5641438163753</v>
       </c>
       <c r="C31" t="n">
-        <v>637.699501774989</v>
+        <v>491.388826169839</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440241</v>
+        <v>397.0330520388739</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>304.8808237378514</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264621</v>
+        <v>213.7517415213115</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1041.794132832553</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>730.4517433652444</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703942</v>
+        <v>730.4517433652444</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103135</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6886,7 +6886,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7309,16 +7309,16 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010317</v>
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711639</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.71103567859764</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>209.090197194066</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>206.0963585005045</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>52.07175384984308</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>70.79415120807722</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>9.760100492532823</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>166.9753506989542</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>14.41008942808838</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644281</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>82.5716194944943</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>89.63158001338455</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571506</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>137.7225668121532</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="G2" t="n">
         <v>156411.6238950835</v>
@@ -26338,13 +26338,13 @@
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381078</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284539</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086702</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284553</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,22 +26439,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106718</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>-84283.59187707721</v>
       </c>
       <c r="D6" t="n">
-        <v>-84283.5918770772</v>
+        <v>-84283.59187707724</v>
       </c>
       <c r="E6" t="n">
-        <v>-482910.3461173999</v>
+        <v>-483007.805243372</v>
       </c>
       <c r="F6" t="n">
-        <v>42249.69035949605</v>
+        <v>42152.23123352397</v>
       </c>
       <c r="G6" t="n">
-        <v>42249.69035949609</v>
+        <v>42152.23123352401</v>
       </c>
       <c r="H6" t="n">
-        <v>42249.69035949615</v>
+        <v>42152.23123352398</v>
       </c>
       <c r="I6" t="n">
-        <v>42249.69035949616</v>
+        <v>42152.231233524</v>
       </c>
       <c r="J6" t="n">
-        <v>-134173.5288330969</v>
+        <v>-134270.987959069</v>
       </c>
       <c r="K6" t="n">
-        <v>-18401.18899602786</v>
+        <v>-18419.6827339618</v>
       </c>
       <c r="L6" t="n">
-        <v>11556.94652377332</v>
+        <v>11556.94652377319</v>
       </c>
       <c r="M6" t="n">
         <v>-112901.161909197</v>
       </c>
       <c r="N6" t="n">
-        <v>21899.85332464015</v>
+        <v>21899.85332464016</v>
       </c>
       <c r="O6" t="n">
-        <v>21899.85332464013</v>
+        <v>21899.85332464018</v>
       </c>
       <c r="P6" t="n">
-        <v>-22262.7519782055</v>
+        <v>-22262.7519782054</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>32.54233857550693</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>338.9460655168538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.5643656403382</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>62.85042113331616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>41.13433373758957</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>168.132033644968</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>89.99576263494181</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>245.5416277054595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>106.3487835417884</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>229.2093592751782</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>98.43097677636402</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>146.7089181598057</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,31 +33822,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,13 +36209,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109073</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
